--- a/LF/TAS/Nigeria/2023/ng_lf_tas_202304_2_participant.xlsx
+++ b/LF/TAS/Nigeria/2023/ng_lf_tas_202304_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Nigeria\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26162A28-41B0-4F5C-A28B-3ED500029991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B4FC7-DC50-4CE1-8A22-4BDF50994726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
   <si>
     <t>type</t>
   </si>
@@ -240,9 +240,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>eu_list</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -282,10 +279,127 @@
     <t>English</t>
   </si>
   <si>
-    <t>ng_lf_tas_202304_2_participant</t>
-  </si>
-  <si>
-    <t>(2023 Avr) Nigeria - 2. TAS1 LF Participants Form</t>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>ABUA/ODUAL</t>
+  </si>
+  <si>
+    <t>AHOADA WEST</t>
+  </si>
+  <si>
+    <t>EMOHUA</t>
+  </si>
+  <si>
+    <t>EMUOHA</t>
+  </si>
+  <si>
+    <t>ETCHE</t>
+  </si>
+  <si>
+    <t>IKWERE</t>
+  </si>
+  <si>
+    <t>KHANA</t>
+  </si>
+  <si>
+    <t>OGBA/EGBMA/NDONI</t>
+  </si>
+  <si>
+    <t>OYIGBO</t>
+  </si>
+  <si>
+    <t>TAI</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>ADADA</t>
+  </si>
+  <si>
+    <t>EGBEMA</t>
+  </si>
+  <si>
+    <t>IDU</t>
+  </si>
+  <si>
+    <t>IKODU</t>
+  </si>
+  <si>
+    <t>AKPABU</t>
+  </si>
+  <si>
+    <t>OBITIE</t>
+  </si>
+  <si>
+    <t>OGIDA</t>
+  </si>
+  <si>
+    <t>OPIORO</t>
+  </si>
+  <si>
+    <t>OWAZA</t>
+  </si>
+  <si>
+    <t>UMUATURU</t>
+  </si>
+  <si>
+    <t>UMUECHE</t>
+  </si>
+  <si>
+    <t>UMUADULAM</t>
+  </si>
+  <si>
+    <t>LUWA</t>
+  </si>
+  <si>
+    <t>ISUKWA</t>
+  </si>
+  <si>
+    <t>NDONI</t>
+  </si>
+  <si>
+    <t>UJU</t>
+  </si>
+  <si>
+    <t>OBETE</t>
+  </si>
+  <si>
+    <t>UEKEN</t>
+  </si>
+  <si>
+    <t>school_id</t>
+  </si>
+  <si>
+    <t>select_one eu</t>
+  </si>
+  <si>
+    <t>select_one district</t>
+  </si>
+  <si>
+    <t>select_one school</t>
+  </si>
+  <si>
+    <t>select_one school_id</t>
+  </si>
+  <si>
+    <t>eu = ${p_eu}</t>
+  </si>
+  <si>
+    <t>district = ${p_district}</t>
+  </si>
+  <si>
+    <t>school = ${p_cluster_name}</t>
+  </si>
+  <si>
+    <t>(2023 Avr) Nigeria - 2. TAS1 LF Participants Form V1</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202304_2_participant_v1</t>
   </si>
 </sst>
 </file>
@@ -357,12 +471,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -407,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -448,11 +568,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,11 +863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -818,7 +956,7 @@
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -837,7 +975,7 @@
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
@@ -853,10 +991,13 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
@@ -874,10 +1015,13 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="15" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -894,6 +1038,9 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
+      <c r="M6" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
@@ -1141,17 +1288,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:C7"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1161,7 +1308,7 @@
     <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1171,80 +1318,907 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50">
+        <v>101</v>
+      </c>
+      <c r="C50">
+        <v>101</v>
+      </c>
+      <c r="F50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <v>102</v>
+      </c>
+      <c r="C51">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54">
+        <v>105</v>
+      </c>
+      <c r="C54">
+        <v>105</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55">
+        <v>106</v>
+      </c>
+      <c r="C55">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56">
+        <v>107</v>
+      </c>
+      <c r="C56">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57">
+        <v>108</v>
+      </c>
+      <c r="C57">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58">
+        <v>109</v>
+      </c>
+      <c r="C58">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59">
+        <v>110</v>
+      </c>
+      <c r="C59">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60">
+        <v>111</v>
+      </c>
+      <c r="C60">
+        <v>111</v>
+      </c>
+      <c r="F60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61">
+        <v>112</v>
+      </c>
+      <c r="C61">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>113</v>
+      </c>
+      <c r="C62">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63">
+        <v>114</v>
+      </c>
+      <c r="C63">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64">
+        <v>115</v>
+      </c>
+      <c r="C64">
+        <v>115</v>
+      </c>
+      <c r="F64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65">
+        <v>116</v>
+      </c>
+      <c r="C65">
+        <v>116</v>
+      </c>
+      <c r="F65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66">
+        <v>117</v>
+      </c>
+      <c r="C66">
+        <v>117</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67">
+        <v>118</v>
+      </c>
+      <c r="C67">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
     <sortCondition ref="B9:B54"/>
   </sortState>
+  <conditionalFormatting sqref="B31:B48">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B67">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1253,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1267,24 +2241,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
